--- a/1.xlsx
+++ b/1.xlsx
@@ -20,18 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">Full Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">Football</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hockey</t>
   </si>
   <si>
     <t xml:space="preserve">Contact Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Hayden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABC</t>
+    <t xml:space="preserve">hayden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nigel</t>
   </si>
 </sst>
 </file>
@@ -216,10 +225,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -230,27 +239,42 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>2345</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>9769248633</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>234</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>9769248633</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -228,7 +228,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -259,9 +259,6 @@
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>9769248633</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -272,9 +269,6 @@
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>9769248633</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -233,7 +233,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -314,7 +314,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>9769248634</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>9</v>
@@ -333,7 +333,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>9769248635</v>
+        <v>9769248633</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -349,7 +349,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>9769248636</v>
+        <v>9769248633</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -365,7 +365,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9769248637</v>
+        <v>9769248633</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -384,7 +384,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9769248638</v>
+        <v>9769248633</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -400,7 +400,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>9769248639</v>
+        <v>9769248633</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -419,7 +419,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>9769248640</v>
+        <v>9769248633</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -40,55 +40,28 @@
     <t xml:space="preserve">Football</t>
   </si>
   <si>
-    <t xml:space="preserve">Mitul Shetty</t>
+    <t xml:space="preserve">Hayden Cordeiro</t>
   </si>
   <si>
-    <t xml:space="preserve">MECH</t>
+    <t xml:space="preserve">Comps</t>
   </si>
   <si>
-    <t xml:space="preserve">SE / SY</t>
+    <t xml:space="preserve">SE</t>
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Shahbaz khan</t>
+    <t xml:space="preserve">Grejo Joby</t>
   </si>
   <si>
-    <t xml:space="preserve">HM / HS</t>
+    <t xml:space="preserve">Extc</t>
   </si>
   <si>
-    <t xml:space="preserve">FE / FY</t>
+    <t xml:space="preserve">Reen kale</t>
   </si>
   <si>
-    <t xml:space="preserve">Elaine Vaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMS / MMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENESIA DMELLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sansia Fernandes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kartik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE / TY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhushikesh Deulkar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James Robin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTC</t>
+    <t xml:space="preserve">IT</t>
   </si>
 </sst>
 </file>
@@ -99,7 +72,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -136,6 +109,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,7 +159,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -213,6 +192,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -230,10 +213,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -285,145 +268,71 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="0" t="n">
         <v>9769248633</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="0"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>34</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>7678060548</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>9769248633</v>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>8779178201</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>9769248633</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>9769248633</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>9769248633</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>9769248633</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>9769248633</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -34,34 +34,142 @@
     <t xml:space="preserve">Contact Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Hockey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Football</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hayden Cordeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE</t>
+    <t xml:space="preserve">Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitul Shetty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MECH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE / SY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escape the Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alwin Wilson, Jorden Joy, Aniket</t>
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Grejo Joby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reen kale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT</t>
+    <t xml:space="preserve">Shahbaz khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM / HS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE / FY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shune Pinto, Nicholas Pinto, Amir Khan, Joel Fernandes, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/01/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaine Vaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS / MMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shawn, Dylan, Kriselle, Grace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/01/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENESIA DMELLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shamin,Krisia,Sukhpreet, Yashasvi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sansia Fernandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea, Mariam, Macrina, Tressa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kartik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE / TY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sai, Krisha, Shruti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/01/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhushikesh Deulkar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zaid, Gazala, Riya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Robin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Callistus, Ritik, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melville Menezes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/01/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Anthony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clyde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hansel Dsouza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melrone Desouza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veronica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Callistus Panigeorge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velton D’souza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhavesh Wallecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kushagra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruchit kini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shahaji waikar</t>
   </si>
 </sst>
 </file>
@@ -72,7 +180,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -109,12 +217,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,7 +261,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -176,10 +278,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -192,8 +290,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -213,17 +311,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="17.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="17.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.45"/>
   </cols>
   <sheetData>
@@ -240,14 +338,18 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -267,84 +369,424 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>9769248633</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="0"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="n">
-        <v>7678060548</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="D2" s="5" t="n">
+        <v>7666095100</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>9594545352</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>9136834349</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>7498754456</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8779656041</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>8879909007</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>9326096172</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9326262574</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9588629455</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>8850576520</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7218546468</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>8291118896</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>9820509940</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7738420086</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>9768287864</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>9067976805</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>8779178201</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>9527726994</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="C19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>9137570190</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>7798386036</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>9987255692</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
